--- a/APITestAutomation/resources/APIInputExcelTestData.xlsx
+++ b/APITestAutomation/resources/APIInputExcelTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>EndPointURI</t>
   </si>
@@ -31,6 +31,60 @@
   </si>
   <si>
     <t>0123456789012345678901234ab</t>
+  </si>
+  <si>
+    <t>TestNGAPi</t>
+  </si>
+  <si>
+    <t>cucumberAPITest</t>
+  </si>
+  <si>
+    <t>RestAssured</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>TestnG</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>util</t>
+  </si>
+  <si>
+    <t>inputexcel</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>stepdefs</t>
+  </si>
+  <si>
+    <t>configfilereader</t>
+  </si>
+  <si>
+    <t>configproperties</t>
+  </si>
+  <si>
+    <t>logproperties</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>TestnG to execute</t>
   </si>
 </sst>
 </file>
@@ -53,12 +107,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,9 +137,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -375,20 +436,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -409,6 +471,111 @@
       <c r="C2">
         <v>200</v>
       </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
